--- a/BOMs/GNSS_FE_PROD.xlsx
+++ b/BOMs/GNSS_FE_PROD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\GNSS_Workshop\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3E9014-6065-4958-BEC1-E5EBEC27BD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6946060-8082-4002-B185-10910E1C9059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1301E066-C894-4D33-ACFD-CFF17F020377}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3B1D772-BC69-4D21-8F05-0CB5CD961BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="GNSS_FE_PROD" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Comment</t>
   </si>
@@ -53,12 +53,12 @@
     <t>Footprint</t>
   </si>
   <si>
+    <t>LibRef</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Fitted</t>
-  </si>
-  <si>
     <t>[NO GND] ANT-GNSSCP-TH18L1</t>
   </si>
   <si>
@@ -92,6 +92,9 @@
     <t>0402_CAP</t>
   </si>
   <si>
+    <t>GRM1555C1H102JA01D</t>
+  </si>
+  <si>
     <t>GJM1555C1H1R5WB01D</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t>WL-SMCW</t>
   </si>
   <si>
+    <t>150060RS75000</t>
+  </si>
+  <si>
     <t>CON-SMA-EDGE-S</t>
   </si>
   <si>
@@ -155,6 +161,9 @@
     <t>INDC1006X60N</t>
   </si>
   <si>
+    <t>LQW15AN3N6C10D</t>
+  </si>
+  <si>
     <t>LQW15AN20NG8ZD</t>
   </si>
   <si>
@@ -182,9 +191,6 @@
     <t>R2, R3, R4</t>
   </si>
   <si>
-    <t>Fitted, Not Fitted</t>
-  </si>
-  <si>
     <t>RC0402FR-07357RL</t>
   </si>
   <si>
@@ -197,7 +203,10 @@
     <t>RC0603JR-070RL</t>
   </si>
   <si>
-    <t>Chip Resistor, 0 Ohm, +/- 5%, 0.1 W, -55 to 155 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
   </si>
   <si>
     <t>R6</t>
@@ -614,15 +623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CC3C9C-25DD-4B3A-BA6E-CDBFFFC9B330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AA1F6B-6B15-473D-8768-335CB353F333}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="1" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -658,11 +666,11 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -678,11 +686,11 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -698,271 +706,271 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
+      <c r="F9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1">
         <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BOMs/GNSS_FE_PROD.xlsx
+++ b/BOMs/GNSS_FE_PROD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\GNSS_Workshop\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6946060-8082-4002-B185-10910E1C9059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1699C3BC-03F5-4571-A75F-665010E0A253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3B1D772-BC69-4D21-8F05-0CB5CD961BF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FBF54E3-A5D3-4A5F-B90D-2704FFB8C64E}"/>
   </bookViews>
   <sheets>
     <sheet name="GNSS_FE_PROD" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Comment</t>
   </si>
@@ -53,12 +53,12 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
+    <t>Fitted</t>
+  </si>
+  <si>
     <t>[NO GND] ANT-GNSSCP-TH18L1</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
     <t>0402_CAP</t>
   </si>
   <si>
-    <t>GRM1555C1H102JA01D</t>
-  </si>
-  <si>
     <t>GJM1555C1H1R5WB01D</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>WL-SMCW</t>
   </si>
   <si>
-    <t>150060RS75000</t>
-  </si>
-  <si>
     <t>CON-SMA-EDGE-S</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
     <t>INDC1006X60N</t>
   </si>
   <si>
-    <t>LQW15AN3N6C10D</t>
-  </si>
-  <si>
     <t>LQW15AN20NG8ZD</t>
   </si>
   <si>
@@ -189,6 +180,9 @@
   </si>
   <si>
     <t>R2, R3, R4</t>
+  </si>
+  <si>
+    <t>Fitted, Not Fitted</t>
   </si>
   <si>
     <t>RC0402FR-07357RL</t>
@@ -623,14 +617,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AA1F6B-6B15-473D-8768-335CB353F333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A835DF-EC63-4D2E-86A4-6F1F25E902A7}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="19" customWidth="1"/>
+    <col min="1" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -666,11 +661,11 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -686,11 +681,11 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -706,271 +701,271 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="1">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
